--- a/data/trans_dic/POLIPATOLOGIA_Lim_5-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_5-Edad-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.001175805470603809</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.008697858181172654</v>
+        <v>0.008697858181172653</v>
       </c>
     </row>
     <row r="5">
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.005517916754347294</v>
+        <v>0.005548845017923224</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.002631481672398895</v>
+        <v>0.002606835330774176</v>
       </c>
     </row>
     <row r="6">
@@ -704,25 +704,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01006099000552669</v>
+        <v>0.01192193631780517</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.01210951204468323</v>
+        <v>0.0120943420357578</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0492672561490128</v>
+        <v>0.04818976816961971</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.006297901576459113</v>
+        <v>0.005429385026032695</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.004731768512926541</v>
+        <v>0.005914160306686101</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02330696333048479</v>
+        <v>0.02274518812646576</v>
       </c>
     </row>
     <row r="7">
@@ -777,22 +777,22 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.004553055588319814</v>
+        <v>0.004678266080977497</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.004179748939834935</v>
+        <v>0.004266561706083119</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01672145324691302</v>
+        <v>0.01404396149852597</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002161363048973158</v>
+        <v>0.002119486811304893</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.001989624892600214</v>
+        <v>0.001981476255850043</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01038771912381734</v>
+        <v>0.009391907498291694</v>
       </c>
     </row>
     <row r="9">
@@ -805,25 +805,25 @@
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.01864933350681834</v>
+        <v>0.01773889666561855</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02513220552423616</v>
+        <v>0.027388396405276</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02250205030749698</v>
+        <v>0.02151580348501584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04685305896621916</v>
+        <v>0.04619310306353486</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01279494814559819</v>
+        <v>0.01201660434623762</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01121229538609855</v>
+        <v>0.01111475569688988</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02709693814775703</v>
+        <v>0.02744179426645022</v>
       </c>
     </row>
     <row r="10">
@@ -844,7 +844,7 @@
         <v>0.003680088177620474</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.02841088088927275</v>
+        <v>0.02841088088927276</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.02859854536377006</v>
@@ -853,7 +853,7 @@
         <v>0.02210744589908121</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.04485596771515671</v>
+        <v>0.0448559677151567</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.01664369538450354</v>
@@ -862,7 +862,7 @@
         <v>0.01284037195324646</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.03664899524645799</v>
+        <v>0.03664899524645798</v>
       </c>
     </row>
     <row r="11">
@@ -873,31 +873,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001308770676059694</v>
+        <v>0.00131303637662488</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01626030683554463</v>
+        <v>0.01663907510831238</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01766256696725331</v>
+        <v>0.01801221341945573</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01351183671692869</v>
+        <v>0.01273391020204808</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03240562590528609</v>
+        <v>0.03240675640945384</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01064406266873807</v>
+        <v>0.0105332069973725</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.007501754712437814</v>
+        <v>0.007697807694642528</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0278480360927373</v>
+        <v>0.02729366851053086</v>
       </c>
     </row>
     <row r="12">
@@ -908,31 +908,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01136584878744095</v>
+        <v>0.01242013121678204</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01412937072523232</v>
+        <v>0.01358961929687212</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04660308603624459</v>
+        <v>0.04555374981779006</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04585199763243126</v>
+        <v>0.0440372352877107</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03576038342348699</v>
+        <v>0.03521140570342521</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06085925260475429</v>
+        <v>0.06230023016978975</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02593255572467329</v>
+        <v>0.02572704074329471</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01972559301808642</v>
+        <v>0.01983476887670896</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04767224167429587</v>
+        <v>0.04840493955355517</v>
       </c>
     </row>
     <row r="13">
@@ -971,7 +971,7 @@
         <v>0.04056669007456028</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.08769235406813208</v>
+        <v>0.0876923540681321</v>
       </c>
     </row>
     <row r="14">
@@ -982,31 +982,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0104620246741875</v>
+        <v>0.01023930798697864</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01207915428326233</v>
+        <v>0.01263233737776046</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04211620674059387</v>
+        <v>0.04091975467543198</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04295107267793324</v>
+        <v>0.04116663778280161</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04222909638823816</v>
+        <v>0.04176215370651899</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09873588937090971</v>
+        <v>0.09813704875196931</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02836925668356319</v>
+        <v>0.02896816370032914</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03031484565364604</v>
+        <v>0.03062514245003672</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07454383493040222</v>
+        <v>0.07387565881187683</v>
       </c>
     </row>
     <row r="15">
@@ -1017,31 +1017,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03741666735461256</v>
+        <v>0.03526777791817176</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03891493027413296</v>
+        <v>0.0365644390708605</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08019653237899201</v>
+        <v>0.08008789983490902</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0840138781913166</v>
+        <v>0.08484749741817973</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07977024523835763</v>
+        <v>0.07790130067661592</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1359968357463601</v>
+        <v>0.1351124415280123</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05304356943404984</v>
+        <v>0.05278269342225685</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05259715133959707</v>
+        <v>0.05202194740763189</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1021407674764479</v>
+        <v>0.09909362049529645</v>
       </c>
     </row>
     <row r="16">
@@ -1080,7 +1080,7 @@
         <v>0.101094683187567</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.1317154545453638</v>
+        <v>0.1317154545453637</v>
       </c>
     </row>
     <row r="17">
@@ -1091,31 +1091,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01957688423768278</v>
+        <v>0.02135123579629423</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0321718270542708</v>
+        <v>0.03141447451659182</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06740213425979809</v>
+        <v>0.06695805089270007</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1138730609486606</v>
+        <v>0.1167603458675279</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1175265683472222</v>
+        <v>0.1190070297288501</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1548398322934676</v>
+        <v>0.1560151078421434</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07284637927707471</v>
+        <v>0.07214728369654901</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08288932584568653</v>
+        <v>0.08145697659168823</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1167170320883821</v>
+        <v>0.1170184968445021</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1126,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05574106212744244</v>
+        <v>0.0564814501843487</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07793633178735658</v>
+        <v>0.07431866446050045</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1075966452871682</v>
+        <v>0.1098472560758191</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1811321351011734</v>
+        <v>0.1878555276579597</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1856749376435192</v>
+        <v>0.1853836944634006</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2047123204116861</v>
+        <v>0.2052531029767918</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1131679855472382</v>
+        <v>0.1111580081643253</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1221192905968405</v>
+        <v>0.1242682268060887</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1512164235192949</v>
+        <v>0.1491445751982222</v>
       </c>
     </row>
     <row r="19">
@@ -1180,7 +1180,7 @@
         <v>0.2088533479947739</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.2553329259573964</v>
+        <v>0.2553329259573963</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.1647818678309773</v>
@@ -1200,31 +1200,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09624465465985657</v>
+        <v>0.09606138793649503</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04232092243144343</v>
+        <v>0.04208663461987099</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09857980049880785</v>
+        <v>0.09619238626864828</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1545589425639534</v>
+        <v>0.149070708209544</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1671562861356866</v>
+        <v>0.1655786014714941</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2261877908930381</v>
+        <v>0.2221683742539402</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1363957497012572</v>
+        <v>0.1371164661258399</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1187456398337174</v>
+        <v>0.1160989704386331</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1701388022989411</v>
+        <v>0.1706534008054151</v>
       </c>
     </row>
     <row r="21">
@@ -1235,31 +1235,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1786328203078315</v>
+        <v>0.1841539454937385</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.10013430509519</v>
+        <v>0.1012822644766202</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1521292661999025</v>
+        <v>0.1502764352758767</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2441923091816516</v>
+        <v>0.2335276617128405</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2534152654698267</v>
+        <v>0.2560094334081975</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2856867308953142</v>
+        <v>0.2846542319346495</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.194432749062694</v>
+        <v>0.1988356102101775</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1725979975667158</v>
+        <v>0.1688398975027769</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2119014314422605</v>
+        <v>0.2111530404488887</v>
       </c>
     </row>
     <row r="22">
@@ -1309,31 +1309,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1459751551903536</v>
+        <v>0.1475384027617342</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1274383746094667</v>
+        <v>0.1304946964231515</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2346562108532683</v>
+        <v>0.2297341707523771</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2936702977899707</v>
+        <v>0.2935314568367768</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.214058174864598</v>
+        <v>0.2095630044874386</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4136680757891122</v>
+        <v>0.4092591580660109</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2494855911769764</v>
+        <v>0.2475193816243871</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1923657842451955</v>
+        <v>0.1924616666778211</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3470714975169943</v>
+        <v>0.3461769762689219</v>
       </c>
     </row>
     <row r="24">
@@ -1344,31 +1344,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2559917113134981</v>
+        <v>0.2498837682281451</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2126029861288785</v>
+        <v>0.2146638603431429</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3137988442787502</v>
+        <v>0.3118746651828807</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3937709174001331</v>
+        <v>0.3913278693970522</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3150891103903161</v>
+        <v>0.3098846357871886</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4791419014435738</v>
+        <v>0.4784825273641409</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3193731808635032</v>
+        <v>0.320494923363686</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2606128267870877</v>
+        <v>0.2621322561102186</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4033610684420642</v>
+        <v>0.4005501041892879</v>
       </c>
     </row>
     <row r="25">
@@ -1407,7 +1407,7 @@
         <v>0.06106942337186406</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.1111965556542035</v>
+        <v>0.1111965556542034</v>
       </c>
     </row>
     <row r="26">
@@ -1418,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0293191690276422</v>
+        <v>0.02966740725614496</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02568218575988533</v>
+        <v>0.02557694606081206</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.06207891310905875</v>
+        <v>0.06220729299400879</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.08388368982408641</v>
+        <v>0.08331978283252692</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.07941999833897577</v>
+        <v>0.08067549804217462</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1410658195489462</v>
+        <v>0.1409276098055865</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.05835079454340338</v>
+        <v>0.05884709394503927</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.05512866853029724</v>
+        <v>0.05564632527508136</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1049180189398286</v>
+        <v>0.1051150004062586</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04244112331054225</v>
+        <v>0.04280307451096236</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03763278333277601</v>
+        <v>0.03790416205872332</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.07814568065289718</v>
+        <v>0.07787812515299075</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1040426853038572</v>
+        <v>0.1037574067795425</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1005827362362935</v>
+        <v>0.1008531427641344</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1597347323928012</v>
+        <v>0.1596251596370064</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.07075360078314137</v>
+        <v>0.07100795998374958</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.06760246055346841</v>
+        <v>0.06727032024133724</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1173852099869415</v>
+        <v>0.1174383778172652</v>
       </c>
     </row>
     <row r="28">
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2027</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="7">
@@ -1738,25 +1738,25 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4569</v>
+        <v>5414</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>4792</v>
+        <v>4786</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17860</v>
+        <v>17469</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5570</v>
+        <v>4802</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3857</v>
+        <v>4821</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>17953</v>
+        <v>17521</v>
       </c>
     </row>
     <row r="8">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2779</v>
+        <v>2855</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2355</v>
+        <v>2404</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8390</v>
+        <v>7046</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2804</v>
+        <v>2750</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2296</v>
+        <v>2287</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10166</v>
+        <v>9191</v>
       </c>
     </row>
     <row r="11">
@@ -1874,25 +1874,25 @@
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>8894</v>
+        <v>8460</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15337</v>
+        <v>16714</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12681</v>
+        <v>12125</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>23508</v>
+        <v>23177</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>16599</v>
+        <v>15590</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12939</v>
+        <v>12827</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>26518</v>
+        <v>26855</v>
       </c>
     </row>
     <row r="12">
@@ -1977,31 +1977,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10095</v>
+        <v>10330</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12555</v>
+        <v>12804</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8937</v>
+        <v>8422</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>20195</v>
+        <v>20196</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14824</v>
+        <v>14670</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9981</v>
+        <v>10242</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>34644</v>
+        <v>33954</v>
       </c>
     </row>
     <row r="15">
@@ -2012,31 +2012,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7750</v>
+        <v>8469</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9454</v>
+        <v>9093</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28933</v>
+        <v>28281</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32594</v>
+        <v>31304</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23651</v>
+        <v>23288</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>37927</v>
+        <v>38825</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>36117</v>
+        <v>35830</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26245</v>
+        <v>26390</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>59306</v>
+        <v>60217</v>
       </c>
     </row>
     <row r="16">
@@ -2121,31 +2121,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6430</v>
+        <v>6293</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7804</v>
+        <v>8161</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>29507</v>
+        <v>28669</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>26466</v>
+        <v>25367</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>27410</v>
+        <v>27107</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>72757</v>
+        <v>72316</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>34917</v>
+        <v>35654</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>39262</v>
+        <v>39663</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>107157</v>
+        <v>106197</v>
       </c>
     </row>
     <row r="19">
@@ -2156,31 +2156,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22997</v>
+        <v>21676</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25141</v>
+        <v>23622</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>56187</v>
+        <v>56111</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>51769</v>
+        <v>52283</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>51777</v>
+        <v>50564</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>100214</v>
+        <v>99562</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>65287</v>
+        <v>64966</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>68120</v>
+        <v>67375</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>146828</v>
+        <v>142447</v>
       </c>
     </row>
     <row r="20">
@@ -2265,31 +2265,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8407</v>
+        <v>9169</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15375</v>
+        <v>15014</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>41071</v>
+        <v>40801</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>50992</v>
+        <v>52285</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>58393</v>
+        <v>59129</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>94275</v>
+        <v>94991</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>63903</v>
+        <v>63290</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>80798</v>
+        <v>79402</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>142185</v>
+        <v>142552</v>
       </c>
     </row>
     <row r="23">
@@ -2300,31 +2300,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23937</v>
+        <v>24255</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>37247</v>
+        <v>35518</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>65564</v>
+        <v>66935</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>81111</v>
+        <v>84122</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>92252</v>
+        <v>92108</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>124640</v>
+        <v>124969</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>99274</v>
+        <v>97511</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>119038</v>
+        <v>121133</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>184212</v>
+        <v>181688</v>
       </c>
     </row>
     <row r="24">
@@ -2409,31 +2409,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>29815</v>
+        <v>29758</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>14149</v>
+        <v>14071</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>40130</v>
+        <v>39158</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>54713</v>
+        <v>52770</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>63145</v>
+        <v>62549</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>99334</v>
+        <v>97569</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>90537</v>
+        <v>91015</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>84558</v>
+        <v>82673</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>143979</v>
+        <v>144415</v>
       </c>
     </row>
     <row r="27">
@@ -2444,31 +2444,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>55338</v>
+        <v>57048</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>33478</v>
+        <v>33862</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>61929</v>
+        <v>61175</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>86443</v>
+        <v>82668</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>95731</v>
+        <v>96711</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>125464</v>
+        <v>125010</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>129061</v>
+        <v>131983</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>122906</v>
+        <v>120230</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>179321</v>
+        <v>178687</v>
       </c>
     </row>
     <row r="28">
@@ -2553,31 +2553,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>36472</v>
+        <v>36863</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>32751</v>
+        <v>33537</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>72790</v>
+        <v>71263</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>114232</v>
+        <v>114178</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>85659</v>
+        <v>83861</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>192194</v>
+        <v>190145</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>159379</v>
+        <v>158123</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>126416</v>
+        <v>126479</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>268913</v>
+        <v>268220</v>
       </c>
     </row>
     <row r="31">
@@ -2588,31 +2588,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>63960</v>
+        <v>62434</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>54639</v>
+        <v>55168</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>97340</v>
+        <v>96743</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>153169</v>
+        <v>152218</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>126089</v>
+        <v>124006</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>222614</v>
+        <v>222307</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>204025</v>
+        <v>204742</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>171266</v>
+        <v>172265</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>312527</v>
+        <v>310349</v>
       </c>
     </row>
     <row r="32">
@@ -2697,31 +2697,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>100470</v>
+        <v>101664</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>87174</v>
+        <v>86817</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>219310</v>
+        <v>219764</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>298484</v>
+        <v>296478</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>281508</v>
+        <v>285958</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>527156</v>
+        <v>526640</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>407585</v>
+        <v>411052</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>382532</v>
+        <v>386124</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>762724</v>
+        <v>764156</v>
       </c>
     </row>
     <row r="35">
@@ -2732,31 +2732,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>145436</v>
+        <v>146677</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>127739</v>
+        <v>128660</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>276070</v>
+        <v>275125</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>370216</v>
+        <v>369201</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>356520</v>
+        <v>357478</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>596921</v>
+        <v>596512</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>494220</v>
+        <v>495997</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>469086</v>
+        <v>466781</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>853357</v>
+        <v>853744</v>
       </c>
     </row>
     <row r="36">
